--- a/pred_ohlcv/54_21/2019-10-11 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-11 WTC ohlcv.xlsx
@@ -3252,7 +3252,7 @@
         <v>-56437.9918</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-55387.8842</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-63149.6535</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-63214.6535</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-63225.1295</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-58940.79990000001</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-39622.65760000001</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-34295.22110000001</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-35104.06150000001</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-34990.06150000001</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-28750.22590000001</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-24900.26490000001</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-20632.50150000001</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-9131.030900000012</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-874.2634110416784</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1119.139711041678</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-18692.52320000001</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-18974.62880000001</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-20059.82040000001</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-22397.57760000001</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-11 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-11 WTC ohlcv.xlsx
@@ -3434,7 +3434,7 @@
         <v>-55418.1249</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-63149.6535</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-63214.6535</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-63225.1295</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-56104.96350000001</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-39622.65760000001</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-34295.22110000001</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-35104.06150000001</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-34990.06150000001</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-28750.22590000001</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-24900.26490000001</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-20632.50150000001</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-9131.030900000012</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>4833.294088958321</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>4833.294088958321</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>7000.834388958321</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-874.2634110416784</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1119.139711041678</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>179.2287889583217</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-17566.78210000001</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-18692.52320000001</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-18974.62880000001</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-20059.82040000001</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-22397.57760000001</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
